--- a/uploads/import/Book11.xlsx
+++ b/uploads/import/Book11.xlsx
@@ -13,6 +13,50 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Tax Inclusive</t>
+  </si>
+  <si>
+    <t>Tax Type</t>
+  </si>
+  <si>
+    <t>Tax %</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Mrp</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +386,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
